--- a/biology/Médecine/Comme_à_la_maison_(association)/Comme_à_la_maison_(association).xlsx
+++ b/biology/Médecine/Comme_à_la_maison_(association)/Comme_à_la_maison_(association).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comme_%C3%A0_la_maison_(association)</t>
+          <t>Comme_à_la_maison_(association)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Comme à la maison est une association de soutien à la maison de naissance des Bluets, à Paris. Elle a été fondée par des sages-femmes, en partenariat avec la maternité des Bluets situé au 6 rue Lasson dans le 12e arrondissement de Paris (anciennement, la maternité des Métallos). Elle promeut l'accompagnement global lors de la grossesse,de l'accouchement et du post-partum.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Comme_%C3%A0_la_maison_(association)</t>
+          <t>Comme_à_la_maison_(association)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1999 se crée un groupe national de travail sur les maisons de naissance, sur une initiative de Bernard Kouchner, alors ministre de la Santé.
 L'année suivante démarre le projet de maison de naissance des Bluets à l'initiative d'un groupe de sages-femmes et soutenu par la direction de la maternité des Bluets. Ce projet donnera naissance en 2006 à l'association CALM (Comme À La Maison) - association pour la maison de naissance des Bluets.
